--- a/GoogleSheets/bin/Debug/net8.0/TesteParaC#V1.xlsx
+++ b/GoogleSheets/bin/Debug/net8.0/TesteParaC#V1.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Desktop\GoogleSheets\GoogleSheets\bin\Debug\net8.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F3A54E-5C15-44DA-BE98-12B3C651D90C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C8D9C7B-46C7-4215-A1CD-A4096AA5ECCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" fullCalcOnLoad="1" fullPrecision="1"/>
   <extLst>
     <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
       <xlwcv:version setVersion="1"/>
@@ -25,15 +25,68 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>Sobrenome</t>
+  </si>
+  <si>
+    <t>Idade</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Galleazzo</t>
+  </si>
+  <si>
+    <t>Paulo</t>
+  </si>
+  <si>
+    <t>Júlia</t>
+  </si>
+  <si>
+    <t>Zanon</t>
+  </si>
+  <si>
+    <t>Sandra</t>
+  </si>
+  <si>
+    <t>Antônio</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>Raissa</t>
+  </si>
+  <si>
+    <t>AnticristoSDD</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -56,8 +109,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -372,12 +427,114 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" bestFit="1" width="13.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="0">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="0">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="0">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="0">
+        <v>666</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
+</file>
+
+<file path=EPPlusLicense.txt>This workbook was created with the EPPlus library, licensed to DanielGalleazzo under the Polyform Noncommercial license, see https://polyformproject.org/licenses/noncommercial/1.0.0
+For more information about EPPlus, see https://epplussoftware.com/
+
 </file>
--- a/GoogleSheets/bin/Debug/net8.0/TesteParaC#V1.xlsx
+++ b/GoogleSheets/bin/Debug/net8.0/TesteParaC#V1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Desktop\GoogleSheets\GoogleSheets\bin\Debug\net8.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C8D9C7B-46C7-4215-A1CD-A4096AA5ECCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59339A5E-0EBE-426D-85D9-2F62634695EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,34 +36,34 @@
     <t>Idade</t>
   </si>
   <si>
-    <t>Daniel</t>
+    <t>Itqachi</t>
   </si>
   <si>
     <t>Galleazzo</t>
   </si>
   <si>
-    <t>Paulo</t>
-  </si>
-  <si>
-    <t>Júlia</t>
+    <t>sasuke</t>
+  </si>
+  <si>
+    <t>oii</t>
   </si>
   <si>
     <t>Zanon</t>
   </si>
   <si>
-    <t>Sandra</t>
+    <t>Oláaa</t>
   </si>
   <si>
     <t>Antônio</t>
   </si>
   <si>
-    <t>Maria</t>
-  </si>
-  <si>
-    <t>Raissa</t>
-  </si>
-  <si>
-    <t>AnticristoSDD</t>
+    <t>Testeee</t>
+  </si>
+  <si>
+    <t>Gabriel</t>
+  </si>
+  <si>
+    <t>Testando</t>
   </si>
 </sst>
 </file>
@@ -429,9 +429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
